--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1160996.187080519</v>
+        <v>1090733.056942151</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>410103.5693545237</v>
+        <v>410103.5693545242</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7329622.860850703</v>
+        <v>7329622.860850702</v>
       </c>
     </row>
     <row r="11">
@@ -658,20 +658,20 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C2" t="n">
-        <v>219.4759005688517</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,19 +746,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.85798122106613</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>10.70796117229895</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>18.62406031006286</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>38.35587820837657</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>174.4097407145713</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,11 +1132,11 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.43010407512111</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>72.67544064837658</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>154.0270021450498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.15457984420474</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.6178514633501</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.5597788807159</v>
+        <v>73.55977888071597</v>
       </c>
       <c r="S11" t="n">
         <v>181.0913913621372</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U11" t="n">
-        <v>207.9709991147589</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.57982147197337</v>
+        <v>32.05589645506617</v>
       </c>
       <c r="S12" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T12" t="n">
         <v>196.0379550173603</v>
       </c>
       <c r="U12" t="n">
-        <v>198.0949836570804</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>46.29252697209089</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4019283127586</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.2983257928464</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0932620502043</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.36123928117394</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>25.41835445471913</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>407.2938634805408</v>
@@ -1624,10 +1624,10 @@
         <v>413.7676097105165</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.17118123060238</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.2060931489365</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>164.4482952216338</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4415306281902</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>58.5798214719734</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T15" t="n">
-        <v>145.9647763341501</v>
+        <v>169.5140300004531</v>
       </c>
       <c r="U15" t="n">
         <v>224.6189086739872</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.366753881748251</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4019283127586</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.2983257928464</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0932620502043</v>
+        <v>25.41835445471913</v>
       </c>
       <c r="J16" t="n">
-        <v>54.36123928117396</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.92577309034238</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.17118123060305</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
@@ -1858,10 +1858,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7676097105165</v>
+        <v>277.71382976414</v>
       </c>
       <c r="H17" t="n">
-        <v>327.0100701439972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.55977888071597</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1937,10 +1937,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4415306281902</v>
+        <v>32.05589645506574</v>
       </c>
       <c r="H18" t="n">
-        <v>104.844715398324</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.57982147197337</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T18" t="n">
         <v>196.0379550173603</v>
       </c>
       <c r="U18" t="n">
-        <v>123.1808632409117</v>
+        <v>224.6189086739872</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>98.33792019736319</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.025670721027</v>
+        <v>278.3547055216583</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.7676097105165</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.55977888071591</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.0913913621372</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>144.7479141680387</v>
       </c>
       <c r="U20" t="n">
-        <v>224.7023134272117</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -2146,7 +2146,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.6870717512358</v>
@@ -2174,13 +2174,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>52.14428865126911</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>104.844715398324</v>
       </c>
       <c r="I21" t="n">
-        <v>66.47641768350113</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.57982147197337</v>
+        <v>58.5798214719734</v>
       </c>
       <c r="S21" t="n">
-        <v>158.1571708882373</v>
+        <v>158.1571708882374</v>
       </c>
       <c r="T21" t="n">
         <v>196.0379550173603</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6189086739872</v>
+        <v>93.25026825875575</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>131.427239851451</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>164.5363071689355</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>181.2531342080304</v>
       </c>
       <c r="D23" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>52.87573207809977</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -2411,13 +2411,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.291790751595</v>
+        <v>135.2917907515943</v>
       </c>
       <c r="H24" t="n">
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246101</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>91.18244574092147</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>57.94595974644213</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>381.4089536006193</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.97983816907737</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>185.9327260257648</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -2654,7 +2654,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246101</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.28281404613777</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S27" t="n">
         <v>155.3758183558542</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>122.7698011469824</v>
+        <v>89.96448705601203</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>319.4204509121012</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>257.4936082621869</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I30" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246101</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.28281404613777</v>
+        <v>49.28281404613733</v>
       </c>
       <c r="S30" t="n">
         <v>155.3758183558542</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.671046896745</v>
+        <v>128.4665504535168</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>23.57283321390625</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>42.83107879584998</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>195.6494148641775</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.3365529312023</v>
@@ -3201,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>46.71620352624058</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.48578169199547</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.35325374174061</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>222.5818107216333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>246.33854559012</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I36" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S36" t="n">
         <v>155.3758183558542</v>
@@ -3413,7 +3413,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.6711514185866</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>33.25672371481742</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1821887834319</v>
+        <v>128.2738716245053</v>
       </c>
       <c r="I37" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>271.9607351638697</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>306.5656400518758</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I39" t="n">
-        <v>61.32090000246036</v>
+        <v>61.32090000246102</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613732</v>
       </c>
       <c r="S39" t="n">
         <v>155.3758183558542</v>
@@ -3678,10 +3678,10 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
-        <v>124.7424897747033</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I40" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.41377105177699</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>132.2920976646814</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>413.4877467656314</v>
@@ -3760,7 +3760,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>46.97852631924314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>152.5601304607726</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H42" t="n">
-        <v>103.3985434322543</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
         <v>61.32090000246036</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.28281404613733</v>
+        <v>49.28281404613777</v>
       </c>
       <c r="S42" t="n">
         <v>155.3758183558542</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>201.3192100297722</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>95.31032463304048</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>17.29696686606729</v>
+        <v>0.2241112159869112</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4076,7 +4076,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I45" t="n">
-        <v>61.32090000246102</v>
+        <v>61.32090000246036</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>49.28281404613732</v>
       </c>
       <c r="S45" t="n">
-        <v>155.3758183558542</v>
+        <v>155.3758183558548</v>
       </c>
       <c r="T45" t="n">
         <v>195.4343982340639</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>95.31032463304079</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>204.9205839196413</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>243.6355334447542</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="F2" t="n">
         <v>21.9427045873282</v>
@@ -4333,10 +4333,10 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494321</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007956</v>
       </c>
       <c r="M2" t="n">
         <v>586.1689795623909</v>
@@ -4354,28 +4354,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R2" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>745.907174392252</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>520.6898842948577</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U2" t="n">
-        <v>520.6898842948577</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V2" t="n">
-        <v>520.6898842948577</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W2" t="n">
-        <v>520.6898842948577</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X2" t="n">
-        <v>520.6898842948577</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y2" t="n">
-        <v>520.6898842948577</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.8608207321463</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="C3" t="n">
-        <v>660.8608207321463</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="D3" t="n">
-        <v>660.8608207321463</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="E3" t="n">
-        <v>503.251291735001</v>
+        <v>166.8984945707113</v>
       </c>
       <c r="F3" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>87.60320201771924</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M3" t="n">
-        <v>359.1441712859057</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N3" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O3" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P3" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
@@ -4436,25 +4436,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1066.975652375434</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>866.5892565084959</v>
+        <v>1086.319106970148</v>
       </c>
       <c r="U3" t="n">
-        <v>866.5892565084959</v>
+        <v>859.3926654881268</v>
       </c>
       <c r="V3" t="n">
-        <v>866.5892565084959</v>
+        <v>625.1414220137276</v>
       </c>
       <c r="W3" t="n">
-        <v>866.5892565084959</v>
+        <v>372.6269303470609</v>
       </c>
       <c r="X3" t="n">
-        <v>866.5892565084959</v>
+        <v>372.6269303470609</v>
       </c>
       <c r="Y3" t="n">
-        <v>660.8608207321463</v>
+        <v>166.8984945707113</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
         <v>21.9427045873282</v>
@@ -4521,19 +4521,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>1078.323047235033</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="U5" t="n">
-        <v>1097.13522936641</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="V5" t="n">
-        <v>820.0808785163064</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="W5" t="n">
-        <v>543.0265276662028</v>
+        <v>853.1057571376389</v>
       </c>
       <c r="X5" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.9427045873282</v>
+        <v>450.6286515212387</v>
       </c>
       <c r="C6" t="n">
-        <v>21.9427045873282</v>
+        <v>411.8853401996462</v>
       </c>
       <c r="D6" t="n">
-        <v>21.9427045873282</v>
+        <v>411.8853401996462</v>
       </c>
       <c r="E6" t="n">
-        <v>21.9427045873282</v>
+        <v>254.2758112025009</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>204.9955038364183</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020685</v>
+        <v>476.5364731046047</v>
       </c>
       <c r="N6" t="n">
-        <v>959.7375174702549</v>
+        <v>748.0774423727912</v>
       </c>
       <c r="O6" t="n">
         <v>1015.957061350112</v>
@@ -4679,19 +4679,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>920.9637740991661</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V6" t="n">
-        <v>686.7125306247669</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="W6" t="n">
-        <v>434.1980389581003</v>
+        <v>862.8839858920107</v>
       </c>
       <c r="X6" t="n">
-        <v>227.6711403636777</v>
+        <v>656.3570872975882</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.9427045873282</v>
+        <v>450.6286515212387</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4746,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.9427045873282</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="E8" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="F8" t="n">
         <v>21.9427045873282</v>
@@ -4816,10 +4816,10 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N8" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O8" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P8" t="n">
         <v>1093.116282134284</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1055.28663939154</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1055.28663939154</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T8" t="n">
-        <v>830.0693492941459</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U8" t="n">
-        <v>576.0514062875353</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V8" t="n">
-        <v>298.9970554374318</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W8" t="n">
-        <v>298.9970554374318</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X8" t="n">
-        <v>298.9970554374318</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.9970554374318</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.3200212191178</v>
+        <v>242.9405472368455</v>
       </c>
       <c r="C9" t="n">
-        <v>109.3200212191178</v>
+        <v>169.5310112283843</v>
       </c>
       <c r="D9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H9" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>38.09606741079833</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>286.1736718527163</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>557.7146411209028</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>829.2556103890893</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>1097.13522936641</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4910,25 +4910,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>926.4669324920217</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>726.0805366250836</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="U9" t="n">
-        <v>499.1540951430621</v>
+        <v>896.7488334994719</v>
       </c>
       <c r="V9" t="n">
-        <v>264.902851668663</v>
+        <v>662.4975900250727</v>
       </c>
       <c r="W9" t="n">
-        <v>264.902851668663</v>
+        <v>409.983098358406</v>
       </c>
       <c r="X9" t="n">
-        <v>264.902851668663</v>
+        <v>409.983098358406</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.3200212191178</v>
+        <v>409.983098358406</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
         <v>21.9427045873282</v>
@@ -4995,19 +4995,19 @@
         <v>202.6630345283467</v>
       </c>
       <c r="U10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.06144276962453</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="C11" t="n">
-        <v>47.06144276962453</v>
+        <v>1504.746523258264</v>
       </c>
       <c r="D11" t="n">
-        <v>47.06144276962453</v>
+        <v>1144.539722496043</v>
       </c>
       <c r="E11" t="n">
-        <v>47.06144276962453</v>
+        <v>757.5518075917121</v>
       </c>
       <c r="F11" t="n">
-        <v>47.06144276962453</v>
+        <v>757.5518075917121</v>
       </c>
       <c r="G11" t="n">
-        <v>47.06144276962453</v>
+        <v>339.6047270760388</v>
       </c>
       <c r="H11" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I11" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J11" t="n">
-        <v>137.757029126597</v>
+        <v>137.7570291265969</v>
       </c>
       <c r="K11" t="n">
-        <v>395.962795401909</v>
+        <v>395.9627954019087</v>
       </c>
       <c r="L11" t="n">
-        <v>768.2589587052589</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M11" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N11" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P11" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716458</v>
       </c>
       <c r="Q11" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R11" t="n">
-        <v>2278.769331531008</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="S11" t="n">
-        <v>2095.848734195516</v>
+        <v>2095.848734195515</v>
       </c>
       <c r="T11" t="n">
-        <v>2095.848734195516</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="U11" t="n">
-        <v>1885.777017917982</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="V11" t="n">
-        <v>1553.925279006346</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="W11" t="n">
-        <v>1199.854453753261</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="X11" t="n">
-        <v>825.246777863191</v>
+        <v>1875.438539095579</v>
       </c>
       <c r="Y11" t="n">
-        <v>434.653776094266</v>
+        <v>1875.438539095579</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>669.968183469392</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C12" t="n">
         <v>497.2150683912091</v>
       </c>
       <c r="D12" t="n">
-        <v>349.626761750153</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E12" t="n">
-        <v>192.0172327530077</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F12" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G12" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H12" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I12" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J12" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K12" t="n">
-        <v>279.2926124030189</v>
+        <v>261.8008521287447</v>
       </c>
       <c r="L12" t="n">
-        <v>652.4056860446933</v>
+        <v>634.9139257704189</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.611238452502</v>
+        <v>1123.119478178228</v>
       </c>
       <c r="N12" t="n">
-        <v>1657.136871135018</v>
+        <v>1639.645110860744</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.028894873054</v>
+        <v>2044.537134598779</v>
       </c>
       <c r="P12" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q12" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R12" t="n">
-        <v>2293.900601640849</v>
+        <v>2320.69244509227</v>
       </c>
       <c r="S12" t="n">
-        <v>2134.145883571923</v>
+        <v>2160.937727023343</v>
       </c>
       <c r="T12" t="n">
-        <v>1936.127747190751</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U12" t="n">
-        <v>1736.031804102791</v>
+        <v>1736.03180410279</v>
       </c>
       <c r="V12" t="n">
         <v>1501.780560628391</v>
       </c>
       <c r="W12" t="n">
-        <v>1249.266068961725</v>
+        <v>1249.266068961724</v>
       </c>
       <c r="X12" t="n">
         <v>1042.739170367302</v>
       </c>
       <c r="Y12" t="n">
-        <v>837.0107345909524</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="C13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="D13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="E13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="F13" t="n">
-        <v>570.4500846251633</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G13" t="n">
-        <v>401.3572277435889</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H13" t="n">
-        <v>242.4700299730369</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I13" t="n">
-        <v>101.971785477881</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J13" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K13" t="n">
-        <v>88.52550135650141</v>
+        <v>88.52550135650134</v>
       </c>
       <c r="L13" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M13" t="n">
-        <v>322.7628580499605</v>
+        <v>322.7628580499603</v>
       </c>
       <c r="N13" t="n">
-        <v>450.2970280645393</v>
+        <v>450.297028064539</v>
       </c>
       <c r="O13" t="n">
-        <v>552.7588795211517</v>
+        <v>552.7588795211514</v>
       </c>
       <c r="P13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="Q13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="R13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="S13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U13" t="n">
-        <v>617.2102128798006</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="V13" t="n">
-        <v>617.2102128798006</v>
+        <v>361.7189491758211</v>
       </c>
       <c r="W13" t="n">
-        <v>617.2102128798006</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="X13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.2102128798006</v>
+        <v>47.06144276962451</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2353.072138481226</v>
+        <v>1247.108482032251</v>
       </c>
       <c r="C14" t="n">
-        <v>1982.38012264391</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="D14" t="n">
-        <v>1622.17332188169</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="E14" t="n">
-        <v>1235.185406977359</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="F14" t="n">
-        <v>823.7774640677217</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="G14" t="n">
-        <v>405.8303835520484</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H14" t="n">
-        <v>75.51718138639461</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I14" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J14" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K14" t="n">
-        <v>395.962795401909</v>
+        <v>395.9627954019088</v>
       </c>
       <c r="L14" t="n">
-        <v>768.2589587052589</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M14" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N14" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P14" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716458</v>
       </c>
       <c r="Q14" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R14" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S14" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="T14" t="n">
-        <v>2353.072138481226</v>
+        <v>2132.661943381289</v>
       </c>
       <c r="U14" t="n">
-        <v>2353.072138481226</v>
+        <v>1966.552554268528</v>
       </c>
       <c r="V14" t="n">
-        <v>2353.072138481226</v>
+        <v>1634.700815356892</v>
       </c>
       <c r="W14" t="n">
-        <v>2353.072138481226</v>
+        <v>1634.700815356892</v>
       </c>
       <c r="X14" t="n">
-        <v>2353.072138481226</v>
+        <v>1634.700815356892</v>
       </c>
       <c r="Y14" t="n">
-        <v>2353.072138481226</v>
+        <v>1634.700815356892</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>912.6815632941539</v>
+        <v>669.9681834693919</v>
       </c>
       <c r="C15" t="n">
-        <v>739.928448215971</v>
+        <v>497.2150683912091</v>
       </c>
       <c r="D15" t="n">
-        <v>592.3401415749148</v>
+        <v>349.6267617501529</v>
       </c>
       <c r="E15" t="n">
-        <v>434.7306125777695</v>
+        <v>192.0172327530076</v>
       </c>
       <c r="F15" t="n">
-        <v>289.7748225943864</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G15" t="n">
-        <v>152.9651956972245</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H15" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I15" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J15" t="n">
-        <v>107.1143052499141</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K15" t="n">
-        <v>107.1143052499141</v>
+        <v>107.1143052499138</v>
       </c>
       <c r="L15" t="n">
-        <v>480.2273788915884</v>
+        <v>480.227378891588</v>
       </c>
       <c r="M15" t="n">
-        <v>968.4329312993975</v>
+        <v>968.432931299397</v>
       </c>
       <c r="N15" t="n">
         <v>1484.958563981913</v>
       </c>
       <c r="O15" t="n">
-        <v>1889.850587719949</v>
+        <v>1889.850587719948</v>
       </c>
       <c r="P15" t="n">
-        <v>2198.385591602395</v>
+        <v>2198.385591602394</v>
       </c>
       <c r="Q15" t="n">
-        <v>2353.072138481226</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R15" t="n">
-        <v>2353.072138481226</v>
+        <v>2293.900601640848</v>
       </c>
       <c r="S15" t="n">
-        <v>2353.072138481226</v>
+        <v>2134.145883571922</v>
       </c>
       <c r="T15" t="n">
-        <v>2205.632970466933</v>
+        <v>1962.919590642171</v>
       </c>
       <c r="U15" t="n">
-        <v>1978.745183927552</v>
+        <v>1736.03180410279</v>
       </c>
       <c r="V15" t="n">
-        <v>1744.493940453153</v>
+        <v>1501.780560628391</v>
       </c>
       <c r="W15" t="n">
-        <v>1491.979448786486</v>
+        <v>1249.266068961724</v>
       </c>
       <c r="X15" t="n">
-        <v>1285.452550192064</v>
+        <v>1042.739170367302</v>
       </c>
       <c r="Y15" t="n">
-        <v>1079.724114415714</v>
+        <v>837.0107345909523</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="C16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="D16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="E16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="F16" t="n">
-        <v>570.4500846251633</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="G16" t="n">
-        <v>401.3572277435889</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="H16" t="n">
-        <v>242.4700299730369</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="I16" t="n">
-        <v>101.9717854778811</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J16" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K16" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650134</v>
       </c>
       <c r="L16" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M16" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499603</v>
       </c>
       <c r="N16" t="n">
-        <v>450.2970280645392</v>
+        <v>450.297028064539</v>
       </c>
       <c r="O16" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211514</v>
       </c>
       <c r="P16" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="Q16" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="R16" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="S16" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T16" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U16" t="n">
-        <v>577.8912501622827</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="V16" t="n">
-        <v>577.8912501622827</v>
+        <v>361.7189491758211</v>
       </c>
       <c r="W16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="X16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
       <c r="Y16" t="n">
-        <v>577.8912501622827</v>
+        <v>72.73654827944182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2324.616399864456</v>
+        <v>1125.976320547371</v>
       </c>
       <c r="C17" t="n">
-        <v>1953.92438402714</v>
+        <v>1125.976320547371</v>
       </c>
       <c r="D17" t="n">
-        <v>1593.71758326492</v>
+        <v>1125.976320547371</v>
       </c>
       <c r="E17" t="n">
-        <v>1206.729668360589</v>
+        <v>738.9884056430396</v>
       </c>
       <c r="F17" t="n">
-        <v>795.3217254509516</v>
+        <v>327.5804627334024</v>
       </c>
       <c r="G17" t="n">
-        <v>377.3746449352783</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H17" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I17" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J17" t="n">
-        <v>137.7570291265974</v>
+        <v>137.757029126597</v>
       </c>
       <c r="K17" t="n">
-        <v>395.9627954019094</v>
+        <v>395.9627954019088</v>
       </c>
       <c r="L17" t="n">
-        <v>768.2589587052591</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M17" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N17" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O17" t="n">
-        <v>1969.929307769079</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716458</v>
       </c>
       <c r="Q17" t="n">
-        <v>2353.072138481227</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="S17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="T17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="U17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="V17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="W17" t="n">
-        <v>2353.072138481227</v>
+        <v>2278.769331531007</v>
       </c>
       <c r="X17" t="n">
-        <v>2353.072138481227</v>
+        <v>1904.161655640937</v>
       </c>
       <c r="Y17" t="n">
-        <v>2353.072138481227</v>
+        <v>1513.568653872012</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>912.6815632941539</v>
+        <v>702.3478768583473</v>
       </c>
       <c r="C18" t="n">
-        <v>739.928448215971</v>
+        <v>529.5947617801644</v>
       </c>
       <c r="D18" t="n">
-        <v>592.3401415749148</v>
+        <v>382.0064551391083</v>
       </c>
       <c r="E18" t="n">
-        <v>434.7306125777695</v>
+        <v>224.396926141963</v>
       </c>
       <c r="F18" t="n">
-        <v>289.7748225943864</v>
+        <v>79.44113615857981</v>
       </c>
       <c r="G18" t="n">
-        <v>152.9651956972245</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H18" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I18" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J18" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K18" t="n">
-        <v>107.1143052499145</v>
+        <v>279.2926124030188</v>
       </c>
       <c r="L18" t="n">
-        <v>480.2273788915888</v>
+        <v>652.4056860446931</v>
       </c>
       <c r="M18" t="n">
-        <v>968.432931299398</v>
+        <v>1140.611238452502</v>
       </c>
       <c r="N18" t="n">
-        <v>1484.958563981914</v>
+        <v>1657.136871135018</v>
       </c>
       <c r="O18" t="n">
-        <v>1889.850587719949</v>
+        <v>2062.028894873053</v>
       </c>
       <c r="P18" t="n">
-        <v>2198.385591602396</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q18" t="n">
-        <v>2353.072138481227</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R18" t="n">
-        <v>2293.90060164085</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S18" t="n">
-        <v>2134.145883571923</v>
+        <v>2193.317420412299</v>
       </c>
       <c r="T18" t="n">
-        <v>1936.127747190751</v>
+        <v>1995.299284031127</v>
       </c>
       <c r="U18" t="n">
-        <v>1811.702632805992</v>
+        <v>1768.411497491746</v>
       </c>
       <c r="V18" t="n">
-        <v>1577.451389331593</v>
+        <v>1534.160254017346</v>
       </c>
       <c r="W18" t="n">
-        <v>1324.936897664926</v>
+        <v>1281.64576235068</v>
       </c>
       <c r="X18" t="n">
-        <v>1118.409999070503</v>
+        <v>1075.118863756257</v>
       </c>
       <c r="Y18" t="n">
-        <v>912.6815632941539</v>
+        <v>869.3904279799077</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.3926752922136</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="C19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="D19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="E19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="F19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J19" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K19" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650134</v>
       </c>
       <c r="L19" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M19" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499603</v>
       </c>
       <c r="N19" t="n">
-        <v>450.2970280645392</v>
+        <v>450.297028064539</v>
       </c>
       <c r="O19" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211514</v>
       </c>
       <c r="P19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="Q19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="R19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="S19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="T19" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="U19" t="n">
-        <v>328.295393969672</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="V19" t="n">
-        <v>328.295393969672</v>
+        <v>336.0438436660039</v>
       </c>
       <c r="W19" t="n">
-        <v>328.295393969672</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="X19" t="n">
-        <v>328.295393969672</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="Y19" t="n">
-        <v>328.295393969672</v>
+        <v>47.06144276962451</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>417.7534586069403</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="C20" t="n">
-        <v>47.06144276962453</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="D20" t="n">
-        <v>47.06144276962453</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="E20" t="n">
-        <v>47.06144276962453</v>
+        <v>876.4164661949351</v>
       </c>
       <c r="F20" t="n">
-        <v>47.06144276962453</v>
+        <v>465.0085232852978</v>
       </c>
       <c r="G20" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H20" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I20" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J20" t="n">
         <v>137.757029126597</v>
       </c>
       <c r="K20" t="n">
-        <v>395.9627954019089</v>
+        <v>395.9627954019088</v>
       </c>
       <c r="L20" t="n">
-        <v>768.2589587052587</v>
+        <v>768.2589587052585</v>
       </c>
       <c r="M20" t="n">
-        <v>1197.722468029211</v>
+        <v>1197.72246802921</v>
       </c>
       <c r="N20" t="n">
-        <v>1618.61797093203</v>
+        <v>1618.617970932029</v>
       </c>
       <c r="O20" t="n">
-        <v>1969.929307769078</v>
+        <v>1969.929307769077</v>
       </c>
       <c r="P20" t="n">
-        <v>2232.826612716459</v>
+        <v>2232.826612716458</v>
       </c>
       <c r="Q20" t="n">
-        <v>2353.072138481227</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R20" t="n">
-        <v>2278.769331531009</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="S20" t="n">
-        <v>2095.848734195517</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="T20" t="n">
-        <v>2095.848734195517</v>
+        <v>2206.862124170075</v>
       </c>
       <c r="U20" t="n">
-        <v>1868.876700430657</v>
+        <v>1952.932032128581</v>
       </c>
       <c r="V20" t="n">
-        <v>1537.024961519021</v>
+        <v>1621.080293216945</v>
       </c>
       <c r="W20" t="n">
-        <v>1182.954136265936</v>
+        <v>1267.00946796386</v>
       </c>
       <c r="X20" t="n">
-        <v>808.3464603758655</v>
+        <v>1267.00946796386</v>
       </c>
       <c r="Y20" t="n">
-        <v>417.7534586069403</v>
+        <v>876.4164661949351</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>895.6908316846385</v>
+        <v>775.8719363969919</v>
       </c>
       <c r="C21" t="n">
-        <v>722.9377166064558</v>
+        <v>603.1188213188091</v>
       </c>
       <c r="D21" t="n">
-        <v>575.3494099653997</v>
+        <v>455.5305146777529</v>
       </c>
       <c r="E21" t="n">
-        <v>417.7398809682544</v>
+        <v>297.9209856806076</v>
       </c>
       <c r="F21" t="n">
-        <v>272.7840909848712</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="G21" t="n">
-        <v>220.1130923472257</v>
+        <v>152.9651956972245</v>
       </c>
       <c r="H21" t="n">
-        <v>114.2093394196257</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I21" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J21" t="n">
-        <v>47.06144276962453</v>
+        <v>108.8611578587505</v>
       </c>
       <c r="K21" t="n">
-        <v>261.8008521287455</v>
+        <v>341.0923274921449</v>
       </c>
       <c r="L21" t="n">
-        <v>634.9139257704198</v>
+        <v>714.2054011338191</v>
       </c>
       <c r="M21" t="n">
-        <v>1123.119478178229</v>
+        <v>1202.410953541628</v>
       </c>
       <c r="N21" t="n">
-        <v>1639.645110860745</v>
+        <v>1718.936586224144</v>
       </c>
       <c r="O21" t="n">
-        <v>2044.53713459878</v>
+        <v>2123.828609962179</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.072138481227</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="Q21" t="n">
-        <v>2353.072138481227</v>
+        <v>2353.072138481225</v>
       </c>
       <c r="R21" t="n">
-        <v>2293.90060164085</v>
+        <v>2293.900601640848</v>
       </c>
       <c r="S21" t="n">
-        <v>2134.145883571923</v>
+        <v>2134.145883571922</v>
       </c>
       <c r="T21" t="n">
-        <v>1936.127747190751</v>
+        <v>1936.12774719075</v>
       </c>
       <c r="U21" t="n">
-        <v>1709.23996065137</v>
+        <v>1841.93555703039</v>
       </c>
       <c r="V21" t="n">
-        <v>1474.988717176971</v>
+        <v>1607.684313555991</v>
       </c>
       <c r="W21" t="n">
-        <v>1474.988717176971</v>
+        <v>1355.169821889324</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.461818582548</v>
+        <v>1148.642923294902</v>
       </c>
       <c r="Y21" t="n">
-        <v>1062.733382806199</v>
+        <v>942.9144875185524</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.816230498363</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="C22" t="n">
-        <v>179.816230498363</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="D22" t="n">
-        <v>179.816230498363</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="E22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="F22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="G22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="H22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="I22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="J22" t="n">
-        <v>47.06144276962453</v>
+        <v>47.06144276962451</v>
       </c>
       <c r="K22" t="n">
-        <v>88.52550135650139</v>
+        <v>88.52550135650134</v>
       </c>
       <c r="L22" t="n">
-        <v>197.3888359084144</v>
+        <v>197.3888359084143</v>
       </c>
       <c r="M22" t="n">
-        <v>322.7628580499604</v>
+        <v>322.7628580499603</v>
       </c>
       <c r="N22" t="n">
-        <v>450.2970280645392</v>
+        <v>450.297028064539</v>
       </c>
       <c r="O22" t="n">
-        <v>552.7588795211516</v>
+        <v>552.7588795211514</v>
       </c>
       <c r="P22" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="Q22" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="R22" t="n">
-        <v>617.2102128798003</v>
+        <v>617.2102128798001</v>
       </c>
       <c r="S22" t="n">
-        <v>617.2102128798003</v>
+        <v>451.0119228101683</v>
       </c>
       <c r="T22" t="n">
-        <v>617.2102128798003</v>
+        <v>451.0119228101683</v>
       </c>
       <c r="U22" t="n">
-        <v>617.2102128798003</v>
+        <v>451.0119228101683</v>
       </c>
       <c r="V22" t="n">
-        <v>361.7189491758214</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="W22" t="n">
-        <v>361.7189491758214</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="X22" t="n">
-        <v>361.7189491758214</v>
+        <v>195.5206591061893</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.7189491758214</v>
+        <v>195.5206591061893</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>837.8397535555332</v>
+        <v>1812.882129770127</v>
       </c>
       <c r="C23" t="n">
-        <v>467.1477377182174</v>
+        <v>1629.798155822622</v>
       </c>
       <c r="D23" t="n">
-        <v>106.9409369559968</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E23" t="n">
-        <v>53.53110657407782</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F23" t="n">
-        <v>53.53110657407782</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G23" t="n">
         <v>53.53110657407782</v>
@@ -5995,7 +5995,7 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
@@ -6019,22 +6019,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T23" t="n">
-        <v>2676.555328703891</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U23" t="n">
-        <v>2676.555328703891</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V23" t="n">
-        <v>2344.703589792255</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="W23" t="n">
-        <v>1990.63276453917</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="X23" t="n">
-        <v>1616.0250886491</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="Y23" t="n">
-        <v>1225.432086880175</v>
+        <v>1812.882129770127</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>356.5727572673193</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I24" t="n">
         <v>53.53110657407782</v>
@@ -6080,13 +6080,13 @@
         <v>1240.767547500212</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.6345871204632</v>
+        <v>669.1631924616793</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407782</v>
+        <v>500.1363713190506</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407782</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="E25" t="n">
-        <v>53.53110657407782</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F25" t="n">
         <v>53.53110657407782</v>
@@ -6171,28 +6171,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X25" t="n">
-        <v>366.5928435525523</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y25" t="n">
-        <v>145.6345871204632</v>
+        <v>669.1631924616793</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1169.691492467169</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C26" t="n">
-        <v>798.9994766298533</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D26" t="n">
-        <v>438.7926758676327</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E26" t="n">
-        <v>438.7926758676327</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F26" t="n">
-        <v>53.53110657407782</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G26" t="n">
         <v>53.53110657407782</v>
@@ -6232,7 +6232,7 @@
         <v>461.1915665632929</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
@@ -6250,28 +6250,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="T26" t="n">
-        <v>2676.555328703891</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U26" t="n">
-        <v>2676.555328703891</v>
+        <v>2146.929840459176</v>
       </c>
       <c r="V26" t="n">
-        <v>2676.555328703891</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W26" t="n">
-        <v>2322.484503450806</v>
+        <v>1461.007276294455</v>
       </c>
       <c r="X26" t="n">
-        <v>1947.876827560736</v>
+        <v>1273.196441924995</v>
       </c>
       <c r="Y26" t="n">
-        <v>1557.283825791811</v>
+        <v>882.6034401560701</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C27" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D27" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E27" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F27" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G27" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I27" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J27" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K27" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L27" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M27" t="n">
-        <v>1316.57292581273</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N27" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O27" t="n">
-        <v>2311.816636565171</v>
+        <v>2236.011258252654</v>
       </c>
       <c r="P27" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537544</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R27" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S27" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T27" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U27" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V27" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W27" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X27" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y27" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2126.401870493603</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="C28" t="n">
-        <v>2126.401870493603</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="D28" t="n">
-        <v>2126.401870493603</v>
+        <v>577.1837916858437</v>
       </c>
       <c r="E28" t="n">
-        <v>2126.401870493603</v>
+        <v>428.7245753492789</v>
       </c>
       <c r="F28" t="n">
-        <v>2126.401870493603</v>
+        <v>281.0892001878602</v>
       </c>
       <c r="G28" t="n">
-        <v>2126.401870493603</v>
+        <v>281.0892001878602</v>
       </c>
       <c r="H28" t="n">
-        <v>2002.391970345136</v>
+        <v>190.2159809393632</v>
       </c>
       <c r="I28" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J28" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K28" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L28" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M28" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N28" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O28" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P28" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="X28" t="n">
-        <v>2529.262845603151</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Y28" t="n">
-        <v>2308.304589171062</v>
+        <v>727.6944649328329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1970.451037928299</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="C29" t="n">
-        <v>1599.759022090983</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="D29" t="n">
-        <v>1339.664468290795</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="E29" t="n">
-        <v>952.6765533864636</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F29" t="n">
-        <v>952.6765533864636</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G29" t="n">
-        <v>535.0121627141086</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H29" t="n">
-        <v>207.5940579063382</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I29" t="n">
-        <v>53.53110657407795</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733076</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K29" t="n">
-        <v>461.1915665632931</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248484</v>
       </c>
       <c r="M29" t="n">
         <v>1355.324135626645</v>
@@ -6505,10 +6505,10 @@
         <v>1970.451037928299</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.451037928299</v>
+        <v>1595.843362038229</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.451037928299</v>
+        <v>1205.250360269304</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C30" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D30" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E30" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F30" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H30" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I30" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J30" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K30" t="n">
-        <v>239.7918714752599</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L30" t="n">
-        <v>645.0924182088989</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M30" t="n">
-        <v>1170.859233530006</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O30" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P30" t="n">
-        <v>2502.945759567338</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R30" t="n">
-        <v>2626.774708455267</v>
+        <v>2626.774708455268</v>
       </c>
       <c r="S30" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T30" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U30" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V30" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W30" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X30" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="C31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="D31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="E31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="F31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J31" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K31" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L31" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M31" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N31" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O31" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R31" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>2462.746190424351</v>
+        <v>597.9302725555432</v>
       </c>
       <c r="T31" t="n">
-        <v>2462.746190424351</v>
+        <v>597.9302725555432</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.838288146864</v>
+        <v>309.0223702780568</v>
       </c>
       <c r="V31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="W31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="X31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="Y31" t="n">
-        <v>2150.027345506555</v>
+        <v>53.53110657407782</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1368.744505365609</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="C32" t="n">
-        <v>998.0524895282934</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="D32" t="n">
-        <v>637.8456887660728</v>
+        <v>1269.591355060401</v>
       </c>
       <c r="E32" t="n">
-        <v>250.857773861742</v>
+        <v>882.6034401560701</v>
       </c>
       <c r="F32" t="n">
-        <v>207.594057906338</v>
+        <v>471.1954972464329</v>
       </c>
       <c r="G32" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H32" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I32" t="n">
         <v>53.53110657407782</v>
@@ -6730,22 +6730,22 @@
         <v>2620.010037624015</v>
       </c>
       <c r="T32" t="n">
-        <v>2400.837317313204</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="U32" t="n">
-        <v>2146.929840459176</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="V32" t="n">
-        <v>2146.929840459176</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="W32" t="n">
-        <v>2146.929840459176</v>
+        <v>2422.384366044038</v>
       </c>
       <c r="X32" t="n">
-        <v>2146.929840459176</v>
+        <v>2047.776690153968</v>
       </c>
       <c r="Y32" t="n">
-        <v>1756.336838690251</v>
+        <v>1657.183688385042</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D33" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E33" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G33" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H33" t="n">
         <v>115.4714096068661</v>
@@ -6788,7 +6788,7 @@
         <v>715.0007321791048</v>
       </c>
       <c r="M33" t="n">
-        <v>1170.859233530006</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N33" t="n">
         <v>1725.940263988108</v>
@@ -6815,7 +6815,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V33" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W33" t="n">
         <v>1558.777383459419</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2217.364025520083</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C34" t="n">
-        <v>2048.337204377455</v>
+        <v>269.685242893825</v>
       </c>
       <c r="D34" t="n">
-        <v>2048.337204377455</v>
+        <v>269.685242893825</v>
       </c>
       <c r="E34" t="n">
-        <v>2048.337204377455</v>
+        <v>269.685242893825</v>
       </c>
       <c r="F34" t="n">
-        <v>2048.337204377455</v>
+        <v>269.685242893825</v>
       </c>
       <c r="G34" t="n">
-        <v>2048.337204377455</v>
+        <v>100.7191909440178</v>
       </c>
       <c r="H34" t="n">
-        <v>2048.337204377455</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I34" t="n">
-        <v>2048.337204377455</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J34" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K34" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L34" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M34" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N34" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O34" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P34" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R34" t="n">
-        <v>2620.225000629631</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S34" t="n">
-        <v>2620.225000629631</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T34" t="n">
-        <v>2620.225000629631</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U34" t="n">
-        <v>2620.225000629631</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V34" t="n">
-        <v>2620.225000629631</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W34" t="n">
-        <v>2620.225000629631</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X34" t="n">
-        <v>2620.225000629631</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y34" t="n">
-        <v>2399.266744197542</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1218.390212912984</v>
+        <v>1009.260035013648</v>
       </c>
       <c r="C35" t="n">
-        <v>1218.390212912984</v>
+        <v>638.5680191763321</v>
       </c>
       <c r="D35" t="n">
-        <v>858.1834121507636</v>
+        <v>278.3612184141115</v>
       </c>
       <c r="E35" t="n">
-        <v>471.1954972464329</v>
+        <v>278.3612184141115</v>
       </c>
       <c r="F35" t="n">
-        <v>471.1954972464329</v>
+        <v>278.3612184141115</v>
       </c>
       <c r="G35" t="n">
-        <v>53.53110657407782</v>
+        <v>278.3612184141115</v>
       </c>
       <c r="H35" t="n">
         <v>53.53110657407782</v>
@@ -6937,13 +6937,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632932</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L35" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6961,28 +6961,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S35" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T35" t="n">
-        <v>2620.010037624015</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U35" t="n">
-        <v>2620.010037624015</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="V35" t="n">
-        <v>2371.183223896621</v>
+        <v>2125.530869481445</v>
       </c>
       <c r="W35" t="n">
-        <v>2371.183223896621</v>
+        <v>1771.460044228359</v>
       </c>
       <c r="X35" t="n">
-        <v>1996.575548006551</v>
+        <v>1396.852368338289</v>
       </c>
       <c r="Y35" t="n">
-        <v>1605.982546237626</v>
+        <v>1396.852368338289</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D36" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H36" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I36" t="n">
         <v>53.53110657407782</v>
@@ -7019,13 +7019,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="K36" t="n">
-        <v>239.7918714752599</v>
+        <v>309.7001854454658</v>
       </c>
       <c r="L36" t="n">
-        <v>645.0924182088989</v>
+        <v>715.0007321791048</v>
       </c>
       <c r="M36" t="n">
-        <v>1170.859233530006</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N36" t="n">
         <v>1725.940263988108</v>
@@ -7061,7 +7061,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="C37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="D37" t="n">
-        <v>2614.261899646725</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="E37" t="n">
-        <v>2465.80268331016</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="F37" t="n">
-        <v>2465.80268331016</v>
+        <v>352.0667258213651</v>
       </c>
       <c r="G37" t="n">
-        <v>2296.836631360353</v>
+        <v>183.1006738715579</v>
       </c>
       <c r="H37" t="n">
-        <v>2139.076844710422</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J37" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K37" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L37" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M37" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N37" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O37" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P37" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q37" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R37" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="W37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="X37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="Y37" t="n">
-        <v>2647.854549863712</v>
+        <v>499.7021009827838</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1544.299168357239</v>
+        <v>1192.265702834733</v>
       </c>
       <c r="C38" t="n">
-        <v>1269.591355060401</v>
+        <v>1192.265702834733</v>
       </c>
       <c r="D38" t="n">
-        <v>1269.591355060401</v>
+        <v>1192.265702834733</v>
       </c>
       <c r="E38" t="n">
         <v>882.6034401560701</v>
@@ -7180,10 +7180,10 @@
         <v>461.1915665632932</v>
       </c>
       <c r="L38" t="n">
-        <v>877.2105568248486</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M38" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N38" t="n">
         <v>1825.656916993543</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624015</v>
       </c>
       <c r="S38" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T38" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782328</v>
       </c>
       <c r="U38" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V38" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="W38" t="n">
-        <v>2322.484503450806</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="X38" t="n">
-        <v>2322.484503450806</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="Y38" t="n">
-        <v>1931.891501681881</v>
+        <v>1579.858036159374</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670866</v>
       </c>
       <c r="C39" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889038</v>
       </c>
       <c r="D39" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478477</v>
       </c>
       <c r="E39" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507024</v>
       </c>
       <c r="F39" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673193</v>
       </c>
       <c r="G39" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707593</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068667</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J39" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K39" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L39" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M39" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N39" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O39" t="n">
-        <v>2236.011258252654</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P39" t="n">
-        <v>2572.854073537544</v>
+        <v>2502.945759567338</v>
       </c>
       <c r="Q39" t="n">
         <v>2676.555328703891</v>
@@ -7289,7 +7289,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W39" t="n">
         <v>1558.777383459419</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="C40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="D40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="E40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="F40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="G40" t="n">
-        <v>2265.079359634365</v>
+        <v>211.2908932240091</v>
       </c>
       <c r="H40" t="n">
-        <v>2139.076844710422</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J40" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K40" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L40" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M40" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N40" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O40" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P40" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q40" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>2647.854549863712</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>2434.045411584172</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="U40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="V40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="W40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="X40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
       <c r="Y40" t="n">
-        <v>2434.045411584172</v>
+        <v>380.2569451738163</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>798.6136020542033</v>
+        <v>1644.462516756296</v>
       </c>
       <c r="C41" t="n">
-        <v>798.6136020542033</v>
+        <v>1644.462516756296</v>
       </c>
       <c r="D41" t="n">
-        <v>798.6136020542033</v>
+        <v>1644.462516756296</v>
       </c>
       <c r="E41" t="n">
-        <v>798.6136020542033</v>
+        <v>1257.474601851965</v>
       </c>
       <c r="F41" t="n">
-        <v>798.6136020542033</v>
+        <v>846.0666589423276</v>
       </c>
       <c r="G41" t="n">
-        <v>380.9492113818483</v>
+        <v>428.4022682699726</v>
       </c>
       <c r="H41" t="n">
-        <v>53.53110657407782</v>
+        <v>100.9841634622022</v>
       </c>
       <c r="I41" t="n">
         <v>53.53110657407782</v>
@@ -7414,10 +7414,10 @@
         <v>167.7421803733077</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632933</v>
       </c>
       <c r="L41" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248487</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7435,28 +7435,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.908895744446</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T41" t="n">
-        <v>2246.736175433636</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U41" t="n">
-        <v>2246.736175433636</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="V41" t="n">
-        <v>1914.884436522</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="W41" t="n">
-        <v>1560.813611268915</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="X41" t="n">
-        <v>1186.205935378845</v>
+        <v>2422.647851849862</v>
       </c>
       <c r="Y41" t="n">
-        <v>1186.205935378845</v>
+        <v>2032.054850080937</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670866</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1380762478477</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H42" t="n">
         <v>115.4714096068661</v>
@@ -7490,13 +7490,13 @@
         <v>53.53110657407782</v>
       </c>
       <c r="J42" t="n">
-        <v>129.3364848865957</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K42" t="n">
-        <v>385.5055637579836</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L42" t="n">
-        <v>790.8061104916227</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M42" t="n">
         <v>1316.57292581273</v>
@@ -7514,28 +7514,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R42" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S42" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T42" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U42" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V42" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W42" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X42" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="43">
@@ -7605,16 +7605,16 @@
         <v>438.7865626553465</v>
       </c>
       <c r="V43" t="n">
-        <v>438.7865626553465</v>
+        <v>235.4338252515362</v>
       </c>
       <c r="W43" t="n">
-        <v>149.8041617589672</v>
+        <v>235.4338252515362</v>
       </c>
       <c r="X43" t="n">
-        <v>53.53110657407782</v>
+        <v>235.4338252515362</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.53110657407782</v>
+        <v>235.4338252515362</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1195.837866083251</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="C44" t="n">
-        <v>825.1458502459357</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="D44" t="n">
-        <v>464.9390494837151</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="E44" t="n">
-        <v>464.9390494837151</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F44" t="n">
-        <v>53.53110657407782</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G44" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H44" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I44" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632933</v>
+        <v>461.191566563293</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248487</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
@@ -7678,22 +7678,22 @@
         <v>2620.010037624015</v>
       </c>
       <c r="T44" t="n">
-        <v>2620.010037624015</v>
+        <v>2400.837317313204</v>
       </c>
       <c r="U44" t="n">
-        <v>2366.102560769986</v>
+        <v>2146.929840459176</v>
       </c>
       <c r="V44" t="n">
-        <v>2366.102560769986</v>
+        <v>1815.07810154754</v>
       </c>
       <c r="W44" t="n">
-        <v>2348.630877066888</v>
+        <v>1814.851726581897</v>
       </c>
       <c r="X44" t="n">
-        <v>1974.023201176818</v>
+        <v>1814.851726581897</v>
       </c>
       <c r="Y44" t="n">
-        <v>1583.430199407893</v>
+        <v>1424.258724812972</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>979.4794979670866</v>
+        <v>979.479497967086</v>
       </c>
       <c r="C45" t="n">
-        <v>806.7263828889038</v>
+        <v>806.7263828889031</v>
       </c>
       <c r="D45" t="n">
-        <v>659.1380762478477</v>
+        <v>659.138076247847</v>
       </c>
       <c r="E45" t="n">
-        <v>501.5285472507024</v>
+        <v>501.5285472507018</v>
       </c>
       <c r="F45" t="n">
-        <v>356.5727572673193</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G45" t="n">
-        <v>219.9143827707593</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H45" t="n">
-        <v>115.4714096068667</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I45" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J45" t="n">
-        <v>53.53110657407782</v>
+        <v>129.3364848865958</v>
       </c>
       <c r="K45" t="n">
-        <v>309.7001854454658</v>
+        <v>385.5055637579837</v>
       </c>
       <c r="L45" t="n">
-        <v>715.0007321791048</v>
+        <v>790.8061104916228</v>
       </c>
       <c r="M45" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.57292581273</v>
       </c>
       <c r="N45" t="n">
-        <v>1795.848577958314</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O45" t="n">
-        <v>2236.011258252654</v>
+        <v>2311.816636565171</v>
       </c>
       <c r="P45" t="n">
-        <v>2572.854073537544</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
@@ -7754,25 +7754,25 @@
         <v>2626.774708455268</v>
       </c>
       <c r="S45" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V45" t="n">
-        <v>1811.291875126086</v>
+        <v>1811.291875126085</v>
       </c>
       <c r="W45" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X45" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y45" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2098.665025530026</v>
+        <v>520.7039761251144</v>
       </c>
       <c r="C46" t="n">
-        <v>2098.665025530026</v>
+        <v>351.6771549824858</v>
       </c>
       <c r="D46" t="n">
-        <v>2098.665025530026</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="E46" t="n">
-        <v>2002.391970345136</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="H46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="J46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K46" t="n">
-        <v>2058.295281151352</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L46" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M46" t="n">
-        <v>2330.491601601709</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N46" t="n">
-        <v>2477.044232696737</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O46" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U46" t="n">
-        <v>2387.647426426405</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V46" t="n">
-        <v>2387.647426426405</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W46" t="n">
-        <v>2098.665025530026</v>
+        <v>520.7039761251144</v>
       </c>
       <c r="X46" t="n">
-        <v>2098.665025530026</v>
+        <v>520.7039761251144</v>
       </c>
       <c r="Y46" t="n">
-        <v>2098.665025530026</v>
+        <v>520.7039761251144</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,16 +8057,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K3" t="n">
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>193.946264309525</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
-        <v>412.8644904155703</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
@@ -8078,7 +8078,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,13 +8294,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>179.3438942156189</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
@@ -8309,7 +8309,7 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
         <v>130.625047228972</v>
@@ -8531,10 +8531,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>143.2439403504901</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
         <v>385.6739591155975</v>
@@ -8549,7 +8549,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.71072211854428</v>
+        <v>68.71072211854434</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>257.3754017715928</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8786,10 +8786,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>313.5328346640459</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.2313419939384</v>
+        <v>62.23134199393847</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>129.3701791693418</v>
+        <v>68.71072211854434</v>
       </c>
       <c r="K15" t="n">
-        <v>40.46690746945104</v>
+        <v>101.1263645202484</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9242,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>68.7107221185443</v>
+        <v>68.71072211854434</v>
       </c>
       <c r="K18" t="n">
-        <v>101.126364520249</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9260,10 +9260,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>313.5328346640456</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>62.23134199393847</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>68.7107221185443</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>257.3754017715935</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9497,10 +9497,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>251.1088800285648</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.23134199393841</v>
+        <v>62.23134199393847</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9728,7 +9728,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>427.9016107615321</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,7 +9953,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946163</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.29483148495586</v>
+        <v>147.8659206895194</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>204.4293879373183</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495586</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10436,10 +10436,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>413.7188077442365</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>427.9016107615321</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>54.56358754946163</v>
+        <v>54.56358754946162</v>
       </c>
       <c r="K36" t="n">
-        <v>204.4293879373183</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>427.9016107615319</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>54.56358754946163</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10910,7 +10910,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>484.3332662999999</v>
+        <v>337.1477185396726</v>
       </c>
       <c r="N39" t="n">
         <v>498.5160693172957</v>
@@ -10922,7 +10922,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>147.8659206895194</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.29483148495586</v>
+        <v>71.29483148495585</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11314,7 +11314,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P44" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983421</v>
       </c>
       <c r="Q44" t="n">
         <v>220.8075902863009</v>
@@ -11375,7 +11375,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>54.56358754946162</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>147.8659206895193</v>
+        <v>71.29483148495585</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>147.5091951100909</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -22558,7 +22558,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
         <v>414.8547654038309</v>
@@ -22594,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.2408914134763</v>
       </c>
       <c r="U2" t="n">
         <v>251.4777635765444</v>
@@ -22609,10 +22609,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X2" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22634,19 +22634,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,19 +22676,19 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>139.1036326845783</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.6745707359697</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
@@ -22725,10 +22725,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
         <v>14.77440971783335</v>
@@ -22761,7 +22761,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22786,7 +22786,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>123.2267623908142</v>
       </c>
       <c r="S5" t="n">
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
         <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.0978942447525</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22865,16 +22865,16 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>132.6697057190244</v>
       </c>
       <c r="D6" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -22883,7 +22883,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,13 +22919,13 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>50.24743635262988</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22968,7 +22968,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23001,7 +23001,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W7" t="n">
         <v>286.0925768874155</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -23032,7 +23032,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>407.2938634805408</v>
+        <v>239.1366530568713</v>
       </c>
       <c r="G8" t="n">
         <v>414.8547654038309</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.420718625756</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
         <v>350.5301170005546</v>
@@ -23089,7 +23089,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>98.35014327902441</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
@@ -23120,7 +23120,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.64414927353624</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -23199,10 +23199,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>63.6842650835742</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -23235,7 +23235,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0522703910642</v>
+        <v>107.1391437494559</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0100701439972</v>
+        <v>37.39221868064715</v>
       </c>
       <c r="I11" t="n">
         <v>163.3117380016203</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>43.41979200632036</v>
+        <v>251.3907911210793</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>104.844715398324</v>
       </c>
       <c r="I12" t="n">
-        <v>66.47641768350113</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>26.52392501690723</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,7 +23393,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>26.52392501690687</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23427,19 +23427,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>99.86649443771361</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0932620502043</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.92577309034237</v>
+        <v>38.92577309034242</v>
       </c>
       <c r="R13" t="n">
-        <v>151.4641530024159</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S13" t="n">
         <v>213.8588123845238</v>
@@ -23475,13 +23475,13 @@
         <v>286.025670721027</v>
       </c>
       <c r="V13" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>200.7220054775901</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I14" t="n">
-        <v>135.1405567710179</v>
+        <v>163.3117380016203</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.55977888071591</v>
+        <v>73.55977888071597</v>
       </c>
       <c r="S14" t="n">
         <v>181.0913913621372</v>
       </c>
       <c r="T14" t="n">
-        <v>218.2060931489365</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3907911210793</v>
+        <v>86.9424958994455</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I15" t="n">
-        <v>66.47641768350113</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.57982147197337</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.1571708882373</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>50.07317868321016</v>
+        <v>26.52392501690721</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>138.7922675280562</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4019283127586</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.2983257928464</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>113.6749075954852</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>38.92577309034242</v>
       </c>
       <c r="R16" t="n">
-        <v>151.4641530024159</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S16" t="n">
         <v>213.8588123845238</v>
@@ -23712,10 +23712,10 @@
         <v>286.025670721027</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>355.545228760792</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>136.0537799463765</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>327.0100701439972</v>
       </c>
       <c r="I17" t="n">
         <v>163.3117380016203</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.55977888071591</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.0913913621372</v>
@@ -23797,10 +23797,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>103.3856341731244</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.844715398324</v>
       </c>
       <c r="I18" t="n">
-        <v>66.47641768350113</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>58.5798214719734</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>101.4380454330755</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
-        <v>68.99863273383914</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
         <v>149.0055665145194</v>
@@ -23913,7 +23913,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J19" t="n">
-        <v>54.36123928117396</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.92577309034238</v>
+        <v>38.92577309034242</v>
       </c>
       <c r="R19" t="n">
-        <v>151.4641530024159</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S19" t="n">
         <v>213.8588123845238</v>
@@ -23946,13 +23946,13 @@
         <v>226.2488251719237</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.670965199368709</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23971,7 +23971,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
         <v>356.6047327545984</v>
@@ -23980,10 +23980,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7676097105165</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>327.0100701439972</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.55977888071597</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.0913913621372</v>
       </c>
       <c r="T20" t="n">
-        <v>218.2060931489365</v>
+        <v>73.45817898089786</v>
       </c>
       <c r="U20" t="n">
-        <v>26.68847769386761</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24062,13 +24062,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.29724197692107</v>
+        <v>135.4415306281902</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>66.47641768350114</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>131.3686404152315</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24135,7 +24135,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>15.54738432174815</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>146.1590214098045</v>
@@ -24150,7 +24150,7 @@
         <v>139.0932620502043</v>
       </c>
       <c r="J22" t="n">
-        <v>54.36123928117396</v>
+        <v>54.36123928117399</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.92577309034238</v>
+        <v>38.92577309034242</v>
       </c>
       <c r="R22" t="n">
-        <v>151.4641530024159</v>
+        <v>151.464153002416</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8588123845238</v>
+        <v>49.32250521558828</v>
       </c>
       <c r="T22" t="n">
         <v>226.2488251719237</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>185.7319614709122</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>330.2423036771877</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>324.1439237596927</v>
@@ -24259,19 +24259,19 @@
         <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
-        <v>76.15410719028087</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.2763914303091</v>
@@ -24411,10 +24411,10 @@
         <v>28.41377105177699</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
         <v>225.7124403105487</v>
@@ -24432,7 +24432,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>160.8027141213261</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>25.88490987992151</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>324.1439237596927</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T26" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>184.9288731054046</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H28" t="n">
-        <v>33.41238763644952</v>
+        <v>66.21770172741988</v>
       </c>
       <c r="I28" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.48578169199547</v>
@@ -24648,7 +24648,7 @@
         <v>28.41377105177699</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S28" t="n">
         <v>211.671046896745</v>
@@ -24669,7 +24669,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>64.29595907929382</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>99.11112449241148</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>167.2763914303091</v>
@@ -24888,7 +24888,7 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.20449644322818</v>
       </c>
       <c r="T31" t="n">
         <v>225.7124403105487</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>229.3635178530329</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>364.4627846846909</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>154.8807021363771</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2763914303091</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1821887834319</v>
+        <v>109.4659852571913</v>
       </c>
       <c r="I34" t="n">
         <v>135.3180256216325</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.48578169199547</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>28.41377105177699</v>
       </c>
       <c r="R34" t="n">
-        <v>118.4663045279922</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S34" t="n">
         <v>211.671046896745</v>
@@ -25137,13 +25137,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>101.5621130380594</v>
       </c>
       <c r="I35" t="n">
-        <v>152.5223218189376</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S35" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V35" t="n">
-        <v>82.19467593239932</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>115.7488427997019</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.90831715892662</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J37" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R37" t="n">
         <v>145.8195582697328</v>
@@ -25365,7 +25365,7 @@
         <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.0188232547115</v>
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>95.02436051507289</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>76.55239570341161</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>152.5223218189375</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907737</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
@@ -25566,13 +25566,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>31.43969900872862</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J40" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R40" t="n">
         <v>145.8195582697328</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.7124403105487</v>
+        <v>93.42034264586721</v>
       </c>
       <c r="U40" t="n">
         <v>286.0188232547115</v>
@@ -25636,10 +25636,10 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>152.5223218189376</v>
+        <v>105.5437954996944</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907735</v>
       </c>
       <c r="S41" t="n">
-        <v>22.15388404479538</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -25809,7 +25809,7 @@
         <v>135.3180256216325</v>
       </c>
       <c r="J43" t="n">
-        <v>45.48578169199547</v>
+        <v>45.48578169199546</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.41377105177699</v>
+        <v>28.41377105177698</v>
       </c>
       <c r="R43" t="n">
         <v>145.8195582697328</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>51.61714103716699</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>130.8300352992688</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189375</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>333.2331501344873</v>
+        <v>350.3060057845677</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C46" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>51.66429954015838</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.2763914303091</v>
@@ -26079,13 +26079,13 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>81.1719929677742</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441669.7633848946</v>
+        <v>441669.7633848944</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441669.7633848945</v>
+        <v>441669.7633848944</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662885.3532852341</v>
+        <v>662885.353285234</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>662885.3532852341</v>
+        <v>662885.353285234</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>662885.3532852342</v>
+        <v>662885.3532852338</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662885.3532852343</v>
+        <v>662885.3532852341</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719838.5503952503</v>
+        <v>719838.5503952504</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719838.5503952503</v>
+        <v>719838.5503952504</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>719838.5503952503</v>
+        <v>719838.5503952504</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>719838.5503952504</v>
+        <v>719838.5503952503</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719838.5503952504</v>
+        <v>719838.5503952503</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173177.1238423508</v>
+        <v>173177.1238423507</v>
       </c>
       <c r="C2" t="n">
-        <v>173177.1238423508</v>
+        <v>173177.1238423507</v>
       </c>
       <c r="D2" t="n">
-        <v>173177.1238423508</v>
+        <v>173177.1238423507</v>
       </c>
       <c r="E2" t="n">
-        <v>261516.7932972995</v>
+        <v>261516.7932972992</v>
       </c>
       <c r="F2" t="n">
-        <v>261516.7932972994</v>
+        <v>261516.7932972992</v>
       </c>
       <c r="G2" t="n">
         <v>261516.7932972994</v>
@@ -26340,10 +26340,10 @@
         <v>284260.2700444343</v>
       </c>
       <c r="K2" t="n">
-        <v>284260.2700444343</v>
+        <v>284260.2700444342</v>
       </c>
       <c r="L2" t="n">
-        <v>284260.270044434</v>
+        <v>284260.2700444341</v>
       </c>
       <c r="M2" t="n">
         <v>284260.2700444343</v>
@@ -26355,7 +26355,7 @@
         <v>284260.2700444343</v>
       </c>
       <c r="P2" t="n">
-        <v>284260.2700444343</v>
+        <v>284260.2700444341</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>311013.0387995449</v>
+        <v>311013.0387995446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>73908.54814175432</v>
+        <v>73908.54814175458</v>
       </c>
       <c r="J3" t="n">
         <v>71764.71248808624</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>78246.12537476218</v>
+        <v>78246.12537476215</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="C4" t="n">
         <v>8932.273136504818</v>
       </c>
       <c r="D4" t="n">
-        <v>8932.273136504818</v>
+        <v>8932.27313650482</v>
       </c>
       <c r="E4" t="n">
-        <v>9540.365307681641</v>
+        <v>9540.365307681639</v>
       </c>
       <c r="F4" t="n">
         <v>9540.365307681641</v>
@@ -26438,10 +26438,10 @@
         <v>9540.365307681641</v>
       </c>
       <c r="I4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="J4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="K4" t="n">
         <v>9697.252368558973</v>
@@ -26450,16 +26450,16 @@
         <v>9697.252368558971</v>
       </c>
       <c r="M4" t="n">
+        <v>9697.252368558971</v>
+      </c>
+      <c r="N4" t="n">
         <v>9697.252368558973</v>
       </c>
-      <c r="N4" t="n">
-        <v>9697.252368558971</v>
-      </c>
       <c r="O4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
       <c r="P4" t="n">
-        <v>9697.252368558971</v>
+        <v>9697.252368558973</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>41662.07004083534</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="F5" t="n">
-        <v>41662.07004083534</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="G5" t="n">
-        <v>41662.07004083535</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="H5" t="n">
-        <v>41662.07004083535</v>
+        <v>41662.07004083532</v>
       </c>
       <c r="I5" t="n">
         <v>48096.64131659552</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22021.98285173671</v>
+        <v>10332.85382848073</v>
       </c>
       <c r="C6" t="n">
-        <v>113940.7952194765</v>
+        <v>102251.6661962206</v>
       </c>
       <c r="D6" t="n">
-        <v>113940.7952194765</v>
+        <v>102251.6661962206</v>
       </c>
       <c r="E6" t="n">
-        <v>-100698.6808507624</v>
+        <v>-107970.8264012707</v>
       </c>
       <c r="F6" t="n">
-        <v>210314.3579487824</v>
+        <v>203042.2123982738</v>
       </c>
       <c r="G6" t="n">
-        <v>210314.3579487824</v>
+        <v>203042.2123982739</v>
       </c>
       <c r="H6" t="n">
-        <v>210314.3579487825</v>
+        <v>203042.2123982741</v>
       </c>
       <c r="I6" t="n">
-        <v>152557.8282175255</v>
+        <v>146422.8565043736</v>
       </c>
       <c r="J6" t="n">
-        <v>154701.6638711936</v>
+        <v>148566.6921580419</v>
       </c>
       <c r="K6" t="n">
-        <v>226466.3763592799</v>
+        <v>220331.4046461281</v>
       </c>
       <c r="L6" t="n">
-        <v>226466.3763592795</v>
+        <v>220331.404646128</v>
       </c>
       <c r="M6" t="n">
-        <v>148220.2509845176</v>
+        <v>142085.279271366</v>
       </c>
       <c r="N6" t="n">
-        <v>226466.3763592798</v>
+        <v>220331.4046461281</v>
       </c>
       <c r="O6" t="n">
-        <v>226466.3763592799</v>
+        <v>220331.4046461281</v>
       </c>
       <c r="P6" t="n">
-        <v>226466.3763592798</v>
+        <v>220331.404646128</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119587</v>
       </c>
       <c r="F3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119587</v>
       </c>
       <c r="G3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119587</v>
       </c>
       <c r="H3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119587</v>
       </c>
       <c r="I3" t="n">
         <v>340.045886252127</v>
@@ -26770,13 +26770,13 @@
         <v>340.045886252127</v>
       </c>
       <c r="M3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="N3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="O3" t="n">
-        <v>340.045886252127</v>
+        <v>340.0458862521271</v>
       </c>
       <c r="P3" t="n">
         <v>340.0458862521271</v>
@@ -26798,16 +26798,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>588.2680346203066</v>
+        <v>588.2680346203064</v>
       </c>
       <c r="F4" t="n">
-        <v>588.2680346203066</v>
+        <v>588.2680346203064</v>
       </c>
       <c r="G4" t="n">
-        <v>588.2680346203067</v>
+        <v>588.2680346203064</v>
       </c>
       <c r="H4" t="n">
-        <v>588.2680346203067</v>
+        <v>588.2680346203064</v>
       </c>
       <c r="I4" t="n">
         <v>669.1388321759728</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>270.4299787119589</v>
+        <v>270.4299787119587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>69.61590754016817</v>
+        <v>69.61590754016839</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>313.9842272787041</v>
+        <v>313.9842272787039</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.87079755566606</v>
+        <v>80.8707975556664</v>
       </c>
       <c r="J4" t="n">
         <v>274.2838073416025</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787041</v>
+        <v>313.984227278704</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>313.9842272787041</v>
+        <v>313.9842272787039</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H11" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I11" t="n">
-        <v>41.91256986650372</v>
+        <v>41.91256986650367</v>
       </c>
       <c r="J11" t="n">
-        <v>92.27098052544373</v>
+        <v>92.27098052544363</v>
       </c>
       <c r="K11" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L11" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M11" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336933</v>
       </c>
       <c r="N11" t="n">
-        <v>193.9839082473231</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O11" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P11" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R11" t="n">
-        <v>68.29104382016118</v>
+        <v>68.29104382016111</v>
       </c>
       <c r="S11" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140205</v>
       </c>
       <c r="T11" t="n">
-        <v>4.759024047483819</v>
+        <v>4.759024047483814</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08697245546515255</v>
+        <v>0.08697245546515245</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5816795768521381</v>
+        <v>0.5816795768521374</v>
       </c>
       <c r="H12" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808802</v>
       </c>
       <c r="I12" t="n">
-        <v>20.02712578197055</v>
+        <v>20.02712578197053</v>
       </c>
       <c r="J12" t="n">
-        <v>54.95596388145574</v>
+        <v>54.95596388145568</v>
       </c>
       <c r="K12" t="n">
-        <v>93.92849553054899</v>
+        <v>93.92849553054889</v>
       </c>
       <c r="L12" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M12" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N12" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O12" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P12" t="n">
-        <v>111.0752869166158</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.25088773993258</v>
+        <v>74.25088773993251</v>
       </c>
       <c r="R12" t="n">
-        <v>36.11515828911785</v>
+        <v>36.11515828911782</v>
       </c>
       <c r="S12" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T12" t="n">
-        <v>2.344576890908398</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03826839321395647</v>
+        <v>0.03826839321395643</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4876606173494341</v>
+        <v>0.4876606173494336</v>
       </c>
       <c r="H13" t="n">
-        <v>4.335746216070426</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I13" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719934</v>
       </c>
       <c r="J13" t="n">
-        <v>34.47760564660499</v>
+        <v>34.47760564660495</v>
       </c>
       <c r="K13" t="n">
-        <v>56.65729717932515</v>
+        <v>56.65729717932509</v>
       </c>
       <c r="L13" t="n">
-        <v>72.50183396484225</v>
+        <v>72.50183396484216</v>
       </c>
       <c r="M13" t="n">
-        <v>76.44301840869356</v>
+        <v>76.44301840869348</v>
       </c>
       <c r="N13" t="n">
-        <v>74.6253742894821</v>
+        <v>74.62537428948201</v>
       </c>
       <c r="O13" t="n">
-        <v>68.92861162317277</v>
+        <v>68.9286116231727</v>
       </c>
       <c r="P13" t="n">
-        <v>58.98033502924426</v>
+        <v>58.9803350292442</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.8349267855058</v>
+        <v>40.83492678550576</v>
       </c>
       <c r="R13" t="n">
-        <v>21.92699466736637</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S13" t="n">
-        <v>8.498594576898771</v>
+        <v>8.498594576898762</v>
       </c>
       <c r="T13" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583943</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H14" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I14" t="n">
-        <v>41.91256986650371</v>
+        <v>41.91256986650367</v>
       </c>
       <c r="J14" t="n">
-        <v>92.27098052544372</v>
+        <v>92.27098052544363</v>
       </c>
       <c r="K14" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M14" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336933</v>
       </c>
       <c r="N14" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O14" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P14" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R14" t="n">
-        <v>68.29104382016116</v>
+        <v>68.29104382016111</v>
       </c>
       <c r="S14" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140205</v>
       </c>
       <c r="T14" t="n">
-        <v>4.759024047483818</v>
+        <v>4.759024047483814</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08697245546515252</v>
+        <v>0.08697245546515245</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.581679576852138</v>
+        <v>0.5816795768521374</v>
       </c>
       <c r="H15" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808802</v>
       </c>
       <c r="I15" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197053</v>
       </c>
       <c r="J15" t="n">
-        <v>54.95596388145573</v>
+        <v>54.95596388145568</v>
       </c>
       <c r="K15" t="n">
-        <v>93.92849553054897</v>
+        <v>93.92849553054889</v>
       </c>
       <c r="L15" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M15" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N15" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O15" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P15" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.25088773993257</v>
+        <v>74.25088773993251</v>
       </c>
       <c r="R15" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911782</v>
       </c>
       <c r="S15" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T15" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03826839321395646</v>
+        <v>0.03826839321395643</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.487660617349434</v>
+        <v>0.4876606173494336</v>
       </c>
       <c r="H16" t="n">
-        <v>4.335746216070425</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I16" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719934</v>
       </c>
       <c r="J16" t="n">
-        <v>34.47760564660498</v>
+        <v>34.47760564660495</v>
       </c>
       <c r="K16" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932509</v>
       </c>
       <c r="L16" t="n">
-        <v>72.50183396484222</v>
+        <v>72.50183396484216</v>
       </c>
       <c r="M16" t="n">
-        <v>76.44301840869353</v>
+        <v>76.44301840869348</v>
       </c>
       <c r="N16" t="n">
-        <v>74.62537428948207</v>
+        <v>74.62537428948201</v>
       </c>
       <c r="O16" t="n">
-        <v>68.92861162317276</v>
+        <v>68.9286116231727</v>
       </c>
       <c r="P16" t="n">
-        <v>58.98033502924424</v>
+        <v>58.9803350292442</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.83492678550579</v>
+        <v>40.83492678550576</v>
       </c>
       <c r="R16" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S16" t="n">
-        <v>8.498594576898769</v>
+        <v>8.498594576898762</v>
       </c>
       <c r="T16" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583943</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H17" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I17" t="n">
-        <v>41.91256986650371</v>
+        <v>41.91256986650367</v>
       </c>
       <c r="J17" t="n">
-        <v>92.27098052544372</v>
+        <v>92.27098052544363</v>
       </c>
       <c r="K17" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L17" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M17" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336933</v>
       </c>
       <c r="N17" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O17" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P17" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R17" t="n">
-        <v>68.29104382016116</v>
+        <v>68.29104382016111</v>
       </c>
       <c r="S17" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140205</v>
       </c>
       <c r="T17" t="n">
-        <v>4.759024047483818</v>
+        <v>4.759024047483814</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08697245546515252</v>
+        <v>0.08697245546515245</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.581679576852138</v>
+        <v>0.5816795768521374</v>
       </c>
       <c r="H18" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808802</v>
       </c>
       <c r="I18" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197053</v>
       </c>
       <c r="J18" t="n">
-        <v>54.95596388145573</v>
+        <v>54.95596388145568</v>
       </c>
       <c r="K18" t="n">
-        <v>93.92849553054897</v>
+        <v>93.92849553054889</v>
       </c>
       <c r="L18" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M18" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N18" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O18" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P18" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.25088773993257</v>
+        <v>74.25088773993251</v>
       </c>
       <c r="R18" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911782</v>
       </c>
       <c r="S18" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T18" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03826839321395646</v>
+        <v>0.03826839321395643</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.487660617349434</v>
+        <v>0.4876606173494336</v>
       </c>
       <c r="H19" t="n">
-        <v>4.335746216070425</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I19" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719934</v>
       </c>
       <c r="J19" t="n">
-        <v>34.47760564660498</v>
+        <v>34.47760564660495</v>
       </c>
       <c r="K19" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932509</v>
       </c>
       <c r="L19" t="n">
-        <v>72.50183396484222</v>
+        <v>72.50183396484216</v>
       </c>
       <c r="M19" t="n">
-        <v>76.44301840869353</v>
+        <v>76.44301840869348</v>
       </c>
       <c r="N19" t="n">
-        <v>74.62537428948207</v>
+        <v>74.62537428948201</v>
       </c>
       <c r="O19" t="n">
-        <v>68.92861162317276</v>
+        <v>68.9286116231727</v>
       </c>
       <c r="P19" t="n">
-        <v>58.98033502924424</v>
+        <v>58.9803350292442</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.83492678550579</v>
+        <v>40.83492678550576</v>
       </c>
       <c r="R19" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S19" t="n">
-        <v>8.498594576898769</v>
+        <v>8.498594576898762</v>
       </c>
       <c r="T19" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583943</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.087155693314407</v>
+        <v>1.087155693314406</v>
       </c>
       <c r="H20" t="n">
-        <v>11.13383324415617</v>
+        <v>11.13383324415616</v>
       </c>
       <c r="I20" t="n">
-        <v>41.91256986650371</v>
+        <v>41.91256986650367</v>
       </c>
       <c r="J20" t="n">
-        <v>92.27098052544372</v>
+        <v>92.27098052544363</v>
       </c>
       <c r="K20" t="n">
-        <v>138.2902810234426</v>
+        <v>138.2902810234425</v>
       </c>
       <c r="L20" t="n">
-        <v>171.5613220727134</v>
+        <v>171.5613220727132</v>
       </c>
       <c r="M20" t="n">
-        <v>190.8950271336935</v>
+        <v>190.8950271336933</v>
       </c>
       <c r="N20" t="n">
-        <v>193.983908247323</v>
+        <v>193.9839082473229</v>
       </c>
       <c r="O20" t="n">
-        <v>183.1735038219279</v>
+        <v>183.1735038219277</v>
       </c>
       <c r="P20" t="n">
-        <v>156.3343476432285</v>
+        <v>156.3343476432283</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.4005843764062</v>
+        <v>117.4005843764061</v>
       </c>
       <c r="R20" t="n">
-        <v>68.29104382016116</v>
+        <v>68.29104382016111</v>
       </c>
       <c r="S20" t="n">
-        <v>24.77356036140207</v>
+        <v>24.77356036140205</v>
       </c>
       <c r="T20" t="n">
-        <v>4.759024047483818</v>
+        <v>4.759024047483814</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08697245546515252</v>
+        <v>0.08697245546515245</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.581679576852138</v>
+        <v>0.5816795768521374</v>
       </c>
       <c r="H21" t="n">
-        <v>5.617800123808808</v>
+        <v>5.617800123808802</v>
       </c>
       <c r="I21" t="n">
-        <v>20.02712578197054</v>
+        <v>20.02712578197053</v>
       </c>
       <c r="J21" t="n">
-        <v>54.95596388145573</v>
+        <v>54.95596388145568</v>
       </c>
       <c r="K21" t="n">
-        <v>93.92849553054897</v>
+        <v>93.92849553054889</v>
       </c>
       <c r="L21" t="n">
-        <v>126.2984537371276</v>
+        <v>126.2984537371275</v>
       </c>
       <c r="M21" t="n">
-        <v>147.3843383980176</v>
+        <v>147.3843383980174</v>
       </c>
       <c r="N21" t="n">
-        <v>151.2851632796269</v>
+        <v>151.2851632796268</v>
       </c>
       <c r="O21" t="n">
-        <v>138.3963684451664</v>
+        <v>138.3963684451662</v>
       </c>
       <c r="P21" t="n">
-        <v>111.0752869166157</v>
+        <v>111.0752869166156</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.25088773993257</v>
+        <v>74.25088773993251</v>
       </c>
       <c r="R21" t="n">
-        <v>36.11515828911784</v>
+        <v>36.11515828911782</v>
       </c>
       <c r="S21" t="n">
-        <v>10.80444301740703</v>
+        <v>10.80444301740702</v>
       </c>
       <c r="T21" t="n">
-        <v>2.344576890908397</v>
+        <v>2.344576890908395</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03826839321395646</v>
+        <v>0.03826839321395643</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.487660617349434</v>
+        <v>0.4876606173494336</v>
       </c>
       <c r="H22" t="n">
-        <v>4.335746216070425</v>
+        <v>4.335746216070421</v>
       </c>
       <c r="I22" t="n">
-        <v>14.66528474719935</v>
+        <v>14.66528474719934</v>
       </c>
       <c r="J22" t="n">
-        <v>34.47760564660498</v>
+        <v>34.47760564660495</v>
       </c>
       <c r="K22" t="n">
-        <v>56.65729717932513</v>
+        <v>56.65729717932509</v>
       </c>
       <c r="L22" t="n">
-        <v>72.50183396484222</v>
+        <v>72.50183396484216</v>
       </c>
       <c r="M22" t="n">
-        <v>76.44301840869353</v>
+        <v>76.44301840869348</v>
       </c>
       <c r="N22" t="n">
-        <v>74.62537428948207</v>
+        <v>74.62537428948201</v>
       </c>
       <c r="O22" t="n">
-        <v>68.92861162317276</v>
+        <v>68.9286116231727</v>
       </c>
       <c r="P22" t="n">
-        <v>58.98033502924424</v>
+        <v>58.9803350292442</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.83492678550579</v>
+        <v>40.83492678550576</v>
       </c>
       <c r="R22" t="n">
-        <v>21.92699466736636</v>
+        <v>21.92699466736634</v>
       </c>
       <c r="S22" t="n">
-        <v>8.498594576898769</v>
+        <v>8.498594576898762</v>
       </c>
       <c r="T22" t="n">
-        <v>2.083640819583945</v>
+        <v>2.083640819583943</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02659967003724189</v>
+        <v>0.02659967003724186</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J35" t="n">
         <v>116.0239981438853</v>
@@ -33669,7 +33669,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O35" t="n">
         <v>230.327261576937</v>
@@ -33681,13 +33681,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R35" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S35" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T35" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U35" t="n">
         <v>0.1093614910559604</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H36" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I36" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J36" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K36" t="n">
         <v>118.1082018315525</v>
@@ -33745,22 +33745,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M36" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N36" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O36" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P36" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q36" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R36" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S36" t="n">
         <v>13.58579554979016</v>
@@ -33769,7 +33769,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H37" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I37" t="n">
         <v>18.44052117577109</v>
@@ -33818,28 +33818,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K37" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L37" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M37" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N37" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O37" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P37" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q37" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R37" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S37" t="n">
         <v>10.6863600646775</v>
@@ -33891,7 +33891,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J38" t="n">
         <v>116.0239981438853</v>
@@ -33906,7 +33906,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O38" t="n">
         <v>230.327261576937</v>
@@ -33918,13 +33918,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R38" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S38" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T38" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U38" t="n">
         <v>0.1093614910559604</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H39" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I39" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J39" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K39" t="n">
         <v>118.1082018315525</v>
@@ -33982,22 +33982,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M39" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N39" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O39" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P39" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q39" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R39" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S39" t="n">
         <v>13.58579554979016</v>
@@ -34006,7 +34006,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H40" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I40" t="n">
         <v>18.44052117577109</v>
@@ -34055,28 +34055,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K40" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L40" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M40" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N40" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O40" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P40" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q40" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R40" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S40" t="n">
         <v>10.6863600646775</v>
@@ -34128,7 +34128,7 @@
         <v>13.99997962846068</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70198604918645</v>
+        <v>52.70198604918647</v>
       </c>
       <c r="J41" t="n">
         <v>116.0239981438853</v>
@@ -34143,7 +34143,7 @@
         <v>240.036511454749</v>
       </c>
       <c r="N41" t="n">
-        <v>243.9205531605333</v>
+        <v>243.9205531605334</v>
       </c>
       <c r="O41" t="n">
         <v>230.327261576937</v>
@@ -34155,13 +34155,13 @@
         <v>147.6226339658669</v>
       </c>
       <c r="R41" t="n">
-        <v>85.87098453179971</v>
+        <v>85.87098453179972</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15093721797124</v>
+        <v>31.15093721797125</v>
       </c>
       <c r="T41" t="n">
-        <v>5.984124088718334</v>
+        <v>5.984124088718336</v>
       </c>
       <c r="U41" t="n">
         <v>0.1093614910559604</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7314194534479714</v>
+        <v>0.7314194534479715</v>
       </c>
       <c r="H42" t="n">
-        <v>7.063972089879093</v>
+        <v>7.063972089879095</v>
       </c>
       <c r="I42" t="n">
         <v>25.1826434630113</v>
       </c>
       <c r="J42" t="n">
-        <v>69.1030984505384</v>
+        <v>69.10309845053841</v>
       </c>
       <c r="K42" t="n">
         <v>118.1082018315525</v>
@@ -34219,22 +34219,22 @@
         <v>158.8110528199203</v>
       </c>
       <c r="M42" t="n">
-        <v>185.3250080074092</v>
+        <v>185.3250080074093</v>
       </c>
       <c r="N42" t="n">
-        <v>190.2300095175932</v>
+        <v>190.2300095175933</v>
       </c>
       <c r="O42" t="n">
         <v>174.0232942596145</v>
       </c>
       <c r="P42" t="n">
-        <v>139.6690358079727</v>
+        <v>139.6690358079728</v>
       </c>
       <c r="Q42" t="n">
-        <v>93.36505163662176</v>
+        <v>93.36505163662177</v>
       </c>
       <c r="R42" t="n">
-        <v>45.41216571495389</v>
+        <v>45.4121657149539</v>
       </c>
       <c r="S42" t="n">
         <v>13.58579554979016</v>
@@ -34243,7 +34243,7 @@
         <v>2.948133674204761</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04811970088473498</v>
+        <v>0.04811970088473499</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6131974997989176</v>
+        <v>0.6131974997989177</v>
       </c>
       <c r="H43" t="n">
-        <v>5.451883225484925</v>
+        <v>5.451883225484926</v>
       </c>
       <c r="I43" t="n">
         <v>18.44052117577109</v>
@@ -34292,28 +34292,28 @@
         <v>43.35306323578347</v>
       </c>
       <c r="K43" t="n">
-        <v>71.24240043118331</v>
+        <v>71.24240043118333</v>
       </c>
       <c r="L43" t="n">
-        <v>91.16574465192272</v>
+        <v>91.16574465192274</v>
       </c>
       <c r="M43" t="n">
-        <v>96.12149535484303</v>
+        <v>96.12149535484305</v>
       </c>
       <c r="N43" t="n">
-        <v>93.83594103741079</v>
+        <v>93.83594103741081</v>
       </c>
       <c r="O43" t="n">
-        <v>86.67267933521431</v>
+        <v>86.67267933521433</v>
       </c>
       <c r="P43" t="n">
-        <v>74.16345033931633</v>
+        <v>74.16345033931634</v>
       </c>
       <c r="Q43" t="n">
-        <v>51.34692882407118</v>
+        <v>51.34692882407119</v>
       </c>
       <c r="R43" t="n">
-        <v>27.5715894000495</v>
+        <v>27.57158940004951</v>
       </c>
       <c r="S43" t="n">
         <v>10.6863600646775</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58.85574402414761</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>274.2838073416025</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
@@ -34798,7 +34798,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>44.25337393024155</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35029,7 +35029,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>8.84853735049013</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>250.5834388302202</v>
@@ -35269,7 +35269,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.61170339088132</v>
+        <v>91.61170339088122</v>
       </c>
       <c r="K11" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285978</v>
       </c>
       <c r="L11" t="n">
-        <v>376.0567306094443</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M11" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N11" t="n">
-        <v>425.1469726291105</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O11" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5528332801827</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.4601270351189</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>234.5769390236308</v>
+        <v>216.9084943021417</v>
       </c>
       <c r="L12" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M12" t="n">
-        <v>493.1369216240497</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N12" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O12" t="n">
-        <v>408.9818421596318</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P12" t="n">
-        <v>293.9830743516897</v>
+        <v>311.6515190731783</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.8828874614918</v>
+        <v>41.88288746149174</v>
       </c>
       <c r="L13" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M13" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N13" t="n">
-        <v>128.82239395412</v>
+        <v>128.8223939541199</v>
       </c>
       <c r="O13" t="n">
         <v>103.4968196531438</v>
       </c>
       <c r="P13" t="n">
-        <v>65.1023569279281</v>
+        <v>65.10235692792804</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.6117033908813</v>
+        <v>91.61170339088122</v>
       </c>
       <c r="K14" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285978</v>
       </c>
       <c r="L14" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M14" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N14" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O14" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5528332801826</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.65945705079753</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>60.65945705079726</v>
       </c>
       <c r="L15" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M15" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N15" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O15" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P15" t="n">
         <v>311.6515190731783</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149174</v>
       </c>
       <c r="L16" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M16" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N16" t="n">
         <v>128.8223939541199</v>
@@ -35822,7 +35822,7 @@
         <v>103.4968196531438</v>
       </c>
       <c r="P16" t="n">
-        <v>65.10235692792808</v>
+        <v>65.10235692792804</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.6117033908813</v>
+        <v>91.61170339088122</v>
       </c>
       <c r="K17" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285978</v>
       </c>
       <c r="L17" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M17" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N17" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O17" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5528332801826</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q17" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>60.65945705079798</v>
+        <v>234.5769390236306</v>
       </c>
       <c r="L18" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M18" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N18" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O18" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P18" t="n">
-        <v>311.6515190731783</v>
+        <v>293.9830743516893</v>
       </c>
       <c r="Q18" t="n">
-        <v>156.2490372513446</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149174</v>
       </c>
       <c r="L19" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M19" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N19" t="n">
         <v>128.8223939541199</v>
@@ -36059,7 +36059,7 @@
         <v>103.4968196531438</v>
       </c>
       <c r="P19" t="n">
-        <v>65.10235692792808</v>
+        <v>65.10235692792804</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.6117033908813</v>
+        <v>91.61170339088122</v>
       </c>
       <c r="K20" t="n">
-        <v>260.8139053285979</v>
+        <v>260.8139053285978</v>
       </c>
       <c r="L20" t="n">
-        <v>376.0567306094442</v>
+        <v>376.0567306094441</v>
       </c>
       <c r="M20" t="n">
-        <v>433.8015245696484</v>
+        <v>433.8015245696482</v>
       </c>
       <c r="N20" t="n">
-        <v>425.1469726291103</v>
+        <v>425.1469726291102</v>
       </c>
       <c r="O20" t="n">
-        <v>354.8599361990385</v>
+        <v>354.8599361990383</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5528332801826</v>
+        <v>265.5528332801824</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.4601270351188</v>
+        <v>121.4601270351187</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>62.42395463548083</v>
       </c>
       <c r="K21" t="n">
-        <v>216.9084943021424</v>
+        <v>234.5769390236306</v>
       </c>
       <c r="L21" t="n">
-        <v>376.8818925673478</v>
+        <v>376.8818925673477</v>
       </c>
       <c r="M21" t="n">
-        <v>493.1369216240496</v>
+        <v>493.1369216240495</v>
       </c>
       <c r="N21" t="n">
-        <v>521.7430633156725</v>
+        <v>521.7430633156724</v>
       </c>
       <c r="O21" t="n">
-        <v>408.9818421596317</v>
+        <v>408.9818421596316</v>
       </c>
       <c r="P21" t="n">
-        <v>311.6515190731783</v>
+        <v>231.5591197162084</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>41.88288746149178</v>
+        <v>41.88288746149174</v>
       </c>
       <c r="L22" t="n">
-        <v>109.9629641938515</v>
+        <v>109.9629641938514</v>
       </c>
       <c r="M22" t="n">
-        <v>126.6404264056021</v>
+        <v>126.640426405602</v>
       </c>
       <c r="N22" t="n">
         <v>128.8223939541199</v>
@@ -36296,7 +36296,7 @@
         <v>103.4968196531438</v>
       </c>
       <c r="P22" t="n">
-        <v>65.10235692792808</v>
+        <v>65.10235692792804</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N24" t="n">
-        <v>560.6879095536389</v>
+        <v>490.0734509978754</v>
       </c>
       <c r="O24" t="n">
         <v>444.6087679740799</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.57108920456355</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>258.7566453246342</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.17765338770664</v>
+        <v>104.7487425922701</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.57108920456355</v>
       </c>
       <c r="K30" t="n">
-        <v>188.1421867688708</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L30" t="n">
         <v>409.3944916501405</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.3632011480339</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>409.3944916501405</v>
       </c>
       <c r="M33" t="n">
-        <v>460.4631326776778</v>
+        <v>531.0775912334414</v>
       </c>
       <c r="N33" t="n">
-        <v>560.6879095536389</v>
+        <v>490.0734509978754</v>
       </c>
       <c r="O33" t="n">
         <v>444.6087679740799</v>
@@ -37320,10 +37320,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O35" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P35" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q35" t="n">
         <v>151.6821766245795</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.1421867688708</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L36" t="n">
         <v>409.3944916501405</v>
@@ -37396,7 +37396,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N36" t="n">
-        <v>560.6879095536389</v>
+        <v>490.0734509978752</v>
       </c>
       <c r="O36" t="n">
         <v>444.6087679740799</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L37" t="n">
         <v>128.626874880932</v>
@@ -37481,7 +37481,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P37" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O38" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P38" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6821766245795</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L39" t="n">
         <v>409.3944916501405</v>
       </c>
       <c r="M39" t="n">
-        <v>531.0775912334414</v>
+        <v>383.892043473114</v>
       </c>
       <c r="N39" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740799</v>
@@ -37642,7 +37642,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7487425922701</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L40" t="n">
         <v>128.626874880932</v>
@@ -37718,7 +37718,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P40" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>475.0836175423207</v>
       </c>
       <c r="O41" t="n">
-        <v>402.0136939540475</v>
+        <v>402.0136939540477</v>
       </c>
       <c r="P41" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833409</v>
       </c>
       <c r="Q41" t="n">
         <v>151.6821766245795</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.57108920456355</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K42" t="n">
-        <v>258.7566453246342</v>
+        <v>258.7566453246343</v>
       </c>
       <c r="L42" t="n">
         <v>409.3944916501405</v>
@@ -37870,7 +37870,7 @@
         <v>531.0775912334414</v>
       </c>
       <c r="N42" t="n">
-        <v>560.6879095536389</v>
+        <v>560.687909553639</v>
       </c>
       <c r="O42" t="n">
         <v>444.6087679740799</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.46799071334996</v>
+        <v>56.46799071334998</v>
       </c>
       <c r="L43" t="n">
         <v>128.626874880932</v>
@@ -37955,7 +37955,7 @@
         <v>121.2408873651854</v>
       </c>
       <c r="P43" t="n">
-        <v>80.28547223800017</v>
+        <v>80.28547223800018</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.57108920456356</v>
       </c>
       <c r="K45" t="n">
         <v>258.7566453246343</v>
@@ -38116,7 +38116,7 @@
         <v>340.2452679645354</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7487425922701</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
